--- a/report/reliability/comb/Faculdade de Arquitetura e Urbanismo - FAU-Presencial.xlsx
+++ b/report/reliability/comb/Faculdade de Arquitetura e Urbanismo - FAU-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7230665086816084</v>
+        <v>0.6765515010586779</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.740967300451565</v>
+        <v>0.6996400791201116</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8696205821771582</v>
+        <v>0.8479641225598676</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.19249105283866036</v>
+        <v>0.15195299705289136</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.8605164588998786</v>
+        <v>2.3293390045867417</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.025905114250869353</v>
+        <v>0.028706338982418644</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.3876262626262625</v>
+        <v>1.7858391608391608</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6600179268478591</v>
+        <v>0.5439426291989231</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.10573866865091808</v>
+        <v>0.06911350257161657</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6943156133781705</v>
+        <v>0.6790823742186776</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7067967797160682</v>
+        <v>0.7036952472733286</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8405106853200506</v>
+        <v>0.8526409219222442</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.17975355827597003</v>
+        <v>0.16521179771362363</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.410603741089955</v>
+        <v>2.3749036787218123</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02868565439436861</v>
+        <v>0.029039114608582797</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04549024362681645</v>
+        <v>0.062363837632248266</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.10065209778927516</v>
+        <v>0.07810508706388283</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6928149741035964</v>
+        <v>0.655099962753862</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7072781244605549</v>
+        <v>0.6753866643363828</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8415736674687868</v>
+        <v>0.826812427323924</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.18009644191300356</v>
+        <v>0.14776287329030688</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.4162120550681125</v>
+        <v>2.0805881648567177</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.028822545951832153</v>
+        <v>0.030510318256390462</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04687139168807314</v>
+        <v>0.060556415502600755</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.10223430876412627</v>
+        <v>0.06458304109520374</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6909402983956979</v>
+        <v>0.6545748399244414</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7026287237285673</v>
+        <v>0.6727346681593583</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8363910660270353</v>
+        <v>0.8269919512580236</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.17681920301874615</v>
+        <v>0.14624925336956263</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.3627995700809588</v>
+        <v>2.055624603974061</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02894425468359407</v>
+        <v>0.03051599388399475</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.045720998937007366</v>
+        <v>0.061574280481012815</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.10065209778927516</v>
+        <v>0.06162060300739772</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6891363824274106</v>
+        <v>0.6575005062173552</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7036600465968291</v>
+        <v>0.66630608420015</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8378636583497503</v>
+        <v>0.8195690867781292</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1775395189293574</v>
+        <v>0.14265862328985798</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.3745027915270622</v>
+        <v>1.9967582645402544</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.029121543526273257</v>
+        <v>0.030764834523248078</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04632470640389626</v>
+        <v>0.04812046288979732</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.0998457869441168</v>
+        <v>0.06911350257161657</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7085328398892862</v>
+        <v>0.6334421220915872</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7353540091119708</v>
+        <v>0.6631986952162646</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8277342636438443</v>
+        <v>0.8165645813635443</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.20166244178940496</v>
+        <v>0.14096171400403748</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.7786327185402047</v>
+        <v>1.9691096376307493</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.027097095478109245</v>
+        <v>0.032480916262880404</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04439199683422539</v>
+        <v>0.04831320256479708</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.1356779383546447</v>
+        <v>0.06458304109520374</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7155027228088185</v>
+        <v>0.6409917434569454</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7365008893181878</v>
+        <v>0.664636489194157</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8280490469619639</v>
+        <v>0.817800536668763</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20261422041356286</v>
+        <v>0.14174380144201007</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.7950792221365326</v>
+        <v>1.9818390128285153</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.026391482421657605</v>
+        <v>0.03173132169197737</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.044037978970486766</v>
+        <v>0.048053620399173526</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1356779383546447</v>
+        <v>0.06569598624928033</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7305615995585251</v>
+        <v>0.6756845263542763</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.752531313786467</v>
+        <v>0.703188976250671</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8632664291908179</v>
+        <v>0.8486569134456282</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.21657528970078385</v>
+        <v>0.16487736424137206</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.040915298419336</v>
+        <v>2.3691471002928375</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02533834022864142</v>
+        <v>0.02921369436018703</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04763249335308818</v>
+        <v>0.060021096238838945</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1356779383546447</v>
+        <v>0.07370850686321762</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7289932115021251</v>
+        <v>0.6787530550874958</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.745401253240982</v>
+        <v>0.6977061110875366</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8603037957621928</v>
+        <v>0.835921116521179</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.21020978219856762</v>
+        <v>0.16131065006035902</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.927749106112124</v>
+        <v>2.308039086061626</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.025312524482241246</v>
+        <v>0.028155865168126498</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.050097203705920496</v>
+        <v>0.0586434634254841</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1356779383546447</v>
+        <v>0.07810508706388283</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.714267117108022</v>
+        <v>0.6758986724876465</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7333305123013668</v>
+        <v>0.6899574203140181</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8737221859618464</v>
+        <v>0.8390678391020758</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.19999769190069427</v>
+        <v>0.15643631501432068</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.7499603296576365</v>
+        <v>2.2253634356055962</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.027015085203652596</v>
+        <v>0.028208688718092526</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.056154572672371776</v>
+        <v>0.0617294759209751</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.0998457869441168</v>
+        <v>0.07810508706388283</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7053464937157761</v>
+        <v>0.6644167335862197</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7249260258843933</v>
+        <v>0.6959522730891833</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.868548305781168</v>
+        <v>0.8506569133810311</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.19327548054852606</v>
+        <v>0.1601906477064593</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.635385729293767</v>
+        <v>2.2889573296935724</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.027764749983529027</v>
+        <v>0.029880684142865644</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05563352354882759</v>
+        <v>0.06574334389436655</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.10065209778927516</v>
+        <v>0.06458304109520374</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6943861060171348</v>
+        <v>0.6564955172186006</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7144707424274385</v>
+        <v>0.687033421567807</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8398563159029095</v>
+        <v>0.8476765703235982</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.18532205491381304</v>
+        <v>0.154645571694772</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.5022680635306513</v>
+        <v>2.1952293596635877</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.028732132302727302</v>
+        <v>0.030435704657902237</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05063220293673208</v>
+        <v>0.06638076501081554</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.08931350711780195</v>
+        <v>0.07156187325363311</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6952243247468928</v>
+        <v>0.6396873014680958</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.715420855193824</v>
+        <v>0.6724354149836673</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8393472167518226</v>
+        <v>0.8164726424789641</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.18602695046149442</v>
+        <v>0.1460796599357342</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.513960942855071</v>
+        <v>2.052833077025526</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.028631444031896984</v>
+        <v>0.03190255733595041</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.050505296028904835</v>
+        <v>0.06193893912806425</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.10065209778927516</v>
+        <v>0.06332265880179544</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6404379873856351</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6745105311437732</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8165623539662831</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.14726068992517166</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.072296020863625</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03181592914296758</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.061609676084816</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.06332265880179544</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>264.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5690575119697386</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6242302427780814</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6086635846908212</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.46846260504220516</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.5</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.053691681515906</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5749643432067709</v>
+        <v>0.17355209637708782</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6211468954361238</v>
+        <v>0.3215936538175888</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6029808688850025</v>
+        <v>0.22584571957472924</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4629469030639117</v>
+        <v>0.15472925644215343</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.037878787878788</v>
+        <v>0.9810606060606061</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.1693506893491852</v>
+        <v>0.1365699173337373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5952441396032794</v>
+        <v>0.46259619902299465</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6506171434800113</v>
+        <v>0.5116804494920206</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6421142295756224</v>
+        <v>0.4782702858967228</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4978953713967457</v>
+        <v>0.33346198640942676</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.522727272727273</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0606398032589444</v>
+        <v>1.053691681515906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.598505765366972</v>
+        <v>0.4744776600796838</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6441397735840085</v>
+        <v>0.5281696698945566</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6332534461784567</v>
+        <v>0.49379478100990554</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4834241105278667</v>
+        <v>0.33132157115968464</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.992424242424242</v>
+        <v>4.037878787878788</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2363088206198278</v>
+        <v>1.1693506893491852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5053076070221784</v>
+        <v>0.5805599137990434</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4272167651713886</v>
+        <v>0.5672856262563841</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.44436086664480146</v>
+        <v>0.6028288740050707</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.33903751003762084</v>
+        <v>0.5407448097584067</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.7386363636363636</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.539055447197138</v>
+        <v>0.40413520990876994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.49767744013144166</v>
+        <v>0.6085779167806626</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4186579896161634</v>
+        <v>0.5857715822308841</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.43523812168567005</v>
+        <v>0.6247129516341489</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3095826293962371</v>
+        <v>0.4419434212681535</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.821969696969697</v>
+        <v>0.7386363636363636</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7050947764851272</v>
+        <v>1.539055447197138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.29650259242482635</v>
+        <v>0.5985897672228944</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.29311444881013715</v>
+        <v>0.5772516017773736</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.218410535794337</v>
+        <v>0.6159743064784561</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.14603748097969527</v>
+        <v>0.4075036313795079</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.106060606060606</v>
+        <v>0.821969696969697</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2317570729682197</v>
+        <v>1.7050947764851272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.36667065553071343</v>
+        <v>0.23363866461297433</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.35035564820644916</v>
+        <v>0.32523693781402935</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.28039564909145126</v>
+        <v>0.24558111815847267</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.19206387635660563</v>
+        <v>0.19179201051503958</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.0833333333333335</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4620245698479342</v>
+        <v>0.3085000078899065</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.45984760358214194</v>
+        <v>0.3352418692983871</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.44218686461616996</v>
+        <v>0.3640923568248049</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3323658824292646</v>
+        <v>0.3141110826138801</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.29589777862471794</v>
+        <v>0.1684976297730376</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2803030303030303</v>
+        <v>2.106060606060606</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4634424437436815</v>
+        <v>1.2317570729682197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.49282631114743203</v>
+        <v>0.40649354684437244</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.50263568825822</v>
+        <v>0.41719286362205393</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4068082255177048</v>
+        <v>0.3580792434676599</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.35494127081096777</v>
+        <v>0.21357010167383977</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.25</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.2868152688407426</v>
+        <v>1.4620245698479342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.565403696011058</v>
+        <v>0.46370238804898134</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5741560850972536</v>
+        <v>0.37629354776561325</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5523650088280259</v>
+        <v>0.27107422824876115</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.43707476386006905</v>
+        <v>0.2783328787628871</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.231060606060606</v>
+        <v>1.2803030303030303</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3035565608517166</v>
+        <v>1.4634424437436815</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>264.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5587356403702747</v>
+        <v>0.4762568097841152</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5678173812964404</v>
+        <v>0.4367010379501821</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5466809232297598</v>
+        <v>0.33866415799102567</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4338658849891823</v>
+        <v>0.31736934265220407</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.25</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.2868152688407426</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>264.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5650468425018993</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5300172033941452</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5114805172384621</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4189716075140524</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.231060606060606</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3035565608517166</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>264.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5593667288198171</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5171511836417999</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.49849312950558794</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4175133290164056</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.087121212121212</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.262197088792071</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06818181818181818</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.011363636363636364</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.29545454545454547</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5075757575757576</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.09848484848484848</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.003787878787878788</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.22348484848484848</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.17803030303030304</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
         <v>0.01893939393939394</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06060606060606061</v>
+        <v>0.9810606060606061</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.022727272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2916666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.48863636363636365</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11742424242424243</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
         <v>0.01893939393939394</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.01893939393939394</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04924242424242424</v>
+        <v>0.011363636363636364</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3143939393939394</v>
+        <v>0.29545454545454547</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06060606060606061</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5378787878787878</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7954545454545454</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.01893939393939394</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.003787878787878788</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.04924242424242424</v>
+        <v>0.22348484848484848</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09848484848484848</v>
+        <v>0.17803030303030304</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03409090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7954545454545454</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.007575757575757576</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.011363636363636364</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05303030303030303</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.10227272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.10606060606060606</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.2916666666666667</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.08712121212121213</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42424242424242425</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.08712121212121213</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.003787878787878788</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.10606060606060606</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.32954545454545453</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.23106060606060605</v>
+        <v>0.011363636363636364</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.12878787878787878</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.11742424242424243</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.08712121212121213</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4810606060606061</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14772727272727273</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07575757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.20075757575757575</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.0946969696969697</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.1590909090909091</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.11742424242424243</v>
+        <v>0.08712121212121213</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4696969696969697</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.11742424242424243</v>
+        <v>0.08712121212121213</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.18181818181818182</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.04924242424242424</v>
+        <v>0.32954545454545453</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2878787878787879</v>
+        <v>0.23106060606060605</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3181818181818182</v>
+        <v>0.12878787878787878</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.16287878787878787</v>
+        <v>0.11742424242424243</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.08712121212121213</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1893939393939394</v>
+        <v>0.4810606060606061</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.045454545454545456</v>
+        <v>0.14772727272727273</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3939393939393939</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.23106060606060605</v>
+        <v>0.20075757575757575</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.14015151515151514</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.11742424242424243</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.11742424242424243</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.04924242424242424</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2878787878787879</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.16287878787878787</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1893939393939394</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.23106060606060605</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.14015151515151514</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8627155699103704</v>
+        <v>0.8702515885473407</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8645730911777347</v>
+        <v>0.9837082859971074</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.877111514102982</v>
+        <v>0.9759145055832914</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6147940982949599</v>
+        <v>0.9526671253062142</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.384056896051609</v>
+        <v>60.38089582363488</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.014076788716562441</v>
+        <v>0.0024887583204481417</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7632575757575757</v>
+        <v>0.5883838383838383</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9531887617527514</v>
+        <v>1.1998168065242978</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6225271291323315</v>
+        <v>0.9524542843017302</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8276679232681055</v>
+        <v>0.975575516230788</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8284870390002183</v>
+        <v>0.9781936308573953</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7887356872353537</v>
+        <v>0.9573180011377256</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6168808996379801</v>
+        <v>0.9573180011377256</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.830463156666468</v>
+        <v>44.85816159766949</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.01838213220857227</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.01709623318373915</v>
-      </c>
+        <v>0.0028331428350917296</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6156429993378193</v>
+        <v>0.9573180011377256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8311651969750744</v>
+        <v>0.5989294973106003</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8342588966552462</v>
+        <v>0.9756482310082493</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7937385145783835</v>
+        <v>0.9524542843017303</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.626564059559971</v>
+        <v>0.9524542843017301</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.033506353097733</v>
+        <v>40.06477851111146</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01813739410653112</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.015161551147306617</v>
-      </c>
+        <v>0.007467686751416317</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6294112589268439</v>
+        <v>0.9524542843017302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8198907203588752</v>
+        <v>0.6356154177483382</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8231766985203065</v>
+        <v>0.9734266828404252</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.772131397652019</v>
+        <v>0.9482290904791869</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6081178770889316</v>
+        <v>0.9482290904791868</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.655363244729599</v>
+        <v>36.63173389287182</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.01934350214819199</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.010512347357897918</v>
-      </c>
+        <v>0.007909009380673696</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6156429993378193</v>
+        <v>0.9482290904791869</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8209714782105111</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8228685263623202</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7755155570892495</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6076135568929569</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.645524081426023</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.01934480061893221</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012448221905935152</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6294112589268439</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>264.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9689082430031467</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9825205585802046</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9681877001803115</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9607294164880438</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.40413520990876994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>264.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8309718489109972</v>
+        <v>0.9875357953441262</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8414088283642</v>
+        <v>0.9841679985676313</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7827565603629717</v>
+        <v>0.9724952336848132</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7060224504085892</v>
+        <v>0.9626925114405988</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.5</v>
+        <v>0.7386363636363636</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.053691681515906</v>
+        <v>1.539055447197138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>264.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8370231431092038</v>
+        <v>0.9899790683527832</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8327966229429923</v>
+        <v>0.9855991578009097</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.770140948390872</v>
+        <v>0.9758344269990091</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6959713647195676</v>
+        <v>0.9645674626373336</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.037878787878788</v>
+        <v>0.821969696969697</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.1693506893491852</v>
+        <v>1.7050947764851272</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>264.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.844033831316861</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8492026633221136</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.803821102259206</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7258119254579964</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.522727272727273</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0606398032589444</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>264.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8599610698553373</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8496512058599615</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8022941850067392</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7240269830370581</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.992424242424242</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2363088206198278</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01893939393939394</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.003787878787878788</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.04924242424242424</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09848484848484848</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03409090909090909</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.01893939393939394</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.06818181818181818</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.011363636363636364</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.29545454545454547</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5075757575757576</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09848484848484848</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.003787878787878788</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.22348484848484848</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.17803030303030304</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.022727272727272728</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.48863636363636365</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11742424242424243</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04924242424242424</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3143939393939394</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5378787878787878</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7898286008603341</v>
+        <v>0.6995630395395929</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7968236007723108</v>
+        <v>0.8064289268663354</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6622666479194459</v>
+        <v>0.7459002995327672</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6622666479194459</v>
+        <v>0.5813599774445329</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.9218314912616985</v>
+        <v>4.166061146488974</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02521286142954614</v>
+        <v>0.01876634955442724</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.0946969696969697</v>
+        <v>1.6944444444444444</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2288245577603993</v>
+        <v>0.8836320050503188</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.662266647919446</v>
+        <v>0.5900555550149454</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.662266647919446</v>
+        <v>0.7898286008603341</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.662266647919446</v>
+        <v>0.7968236007723108</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.4385971129464594</v>
+        <v>0.6622666479194459</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.662266647919446</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.662266647919446</v>
-      </c>
+        <v>0.6622666479194459</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.9218314912616985</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02521286142954614</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.662266647919446</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4385971129464594</v>
+        <v>0.3315036056398668</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.662266647919446</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4385971129464594</v>
-      </c>
+        <v>0.6592997236853719</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4917577293992076</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4917577293992077</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.935131168125397</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.029537189711952707</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.662266647919446</v>
+        <v>0.4917577293992077</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.43520071564352003</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.742182313258104</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5900555550149453</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5900555550149453</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.878709845849756</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.027542950085620133</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5900555550149454</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>264.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.895167324791635</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9116651380631613</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7419109653003875</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6622666479194461</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.106060606060606</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2317570729682197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>264.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9268109850298885</v>
+        <v>0.6617637900512405</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9116651380631613</v>
+        <v>0.8172990694822163</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7419109653003875</v>
+        <v>0.6582796613550227</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.662266647919446</v>
+        <v>0.588272335948067</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8939393939393939</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3085000078899065</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>264.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8985789385100527</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8842391651614628</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8105450679584646</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7031338882913942</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.106060606060606</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2317570729682197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>264.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9164763337104702</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8456484221734452</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.731066264911395</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6739237336033672</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.4620245698479342</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.10606060606060606</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8939393939393939</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.2916666666666667</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.08712121212121213</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.42424242424242425</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.08712121212121213</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.003787878787878788</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.10606060606060606</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.32954545454545453</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.23106060606060605</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.12878787878787878</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.11742424242424243</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.08712121212121213</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8778373389883758</v>
+        <v>0.6723797093606254</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8780933176194525</v>
+        <v>0.7856612762625691</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7826794611439933</v>
+        <v>0.7316696349559706</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7826794611439936</v>
+        <v>0.5499220818885315</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.2029957708009</v>
+        <v>3.665512524115892</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.015017042437497666</v>
+        <v>0.015879803447639024</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.159090909090909</v>
+        <v>2.8396464646464645</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2111933307609395</v>
+        <v>0.7090176901392655</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7826794611439934</v>
+        <v>0.4806929040179276</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7826794611439934</v>
+        <v>0.8255069297467059</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7826794611439934</v>
+        <v>0.8281325976971183</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6125871388966517</v>
+        <v>0.7066777316868131</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7826794611439934</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7826794611439934</v>
-      </c>
+        <v>0.7066777316868131</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.818439021017506</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.0212488154217204</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7826794611439934</v>
+        <v>0.706677731686813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6125871388966517</v>
+        <v>0.19944805650404596</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7826794611439934</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6125871388966517</v>
-      </c>
+        <v>0.6492810260838631</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.4806929040179273</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.4806929040179275</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>1.8512857141259706</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.020035469242317177</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7826794611439934</v>
+        <v>0.4806929040179276</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.21090352989511874</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.6323810148380182</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.4623956099608535</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.4623956099608537</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>1.7202077160388658</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.022110424150865338</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.46239560996085377</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>264.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9459481983464164</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9441079019751909</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8352444552466796</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7826794611439934</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.231060606060606</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3035565608517166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>264.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9422376995653692</v>
+        <v>0.5575276518910055</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9441079019751909</v>
+        <v>0.7741737194937381</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8352444552466796</v>
+        <v>0.5609152631467089</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7826794611439937</v>
+        <v>0.5108564227502116</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.087121212121212</v>
+        <v>0.9810606060606061</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.262197088792071</v>
+        <v>0.1365699173337373</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>264.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9135621162746791</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8642115707428979</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7862718004896768</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7168837985497765</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.053691681515906</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>264.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.930686382223606</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8715016576817735</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7997122442785353</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7212732203361125</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.037878787878788</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.1693506893491852</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.04924242424242424</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2878787878787879</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.16287878787878787</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.01893939393939394</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9810606060606061</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1893939393939394</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.23106060606060605</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.14015151515151514</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.01893939393939394</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.06818181818181818</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.011363636363636364</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5075757575757576</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.09848484848484848</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.01893939393939394</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.003787878787878788</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.22348484848484848</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.17803030303030304</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.975575516230788</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9781936308573953</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>44.85816159766949</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0028331428350917296</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7803030303030303</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6047192471569929</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9573180011377256</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5647535272600592</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5681026728902898</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.3967481900654196</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3967481900654197</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.3153651046929975</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05305398862876172</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.7651515151515151</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1502014932413929</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.39674819006541967</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9164577553023303</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9573180011377256</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.39674819006541967</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.39674819006541967</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.15740912632018622</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.39674819006541967</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.39674819006541967</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.39674819006541967</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9164577553023303</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9573180011377256</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9164577553023303</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9573180011377256</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.15740912632018622</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.39674819006541967</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.15740912632018622</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.39674819006541967</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>264.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9881396312753254</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9892719548076064</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9679296866095326</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9573180011377257</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.7386363636363636</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.539055447197138</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8581035949805155</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8356877975851448</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5263826157775379</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.3967481900654196</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.2803030303030303</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4634424437436815</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>264.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9903477715703702</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9892719548076064</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9679296866095326</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9573180011377257</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.821969696969697</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7050947764851272</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8117853352799659</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8356877975851448</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5263826157775379</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.3967481900654198</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.25</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.2868152688407426</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01893939393939394</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.003787878787878788</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.04924242424242424</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09848484848484848</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.03409090909090909</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4810606060606061</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14772727272727273</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.20075757575757575</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.0946969696969697</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.007575757575757576</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.011363636363636364</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05303030303030303</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.10227272727272728</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1590909090909091</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.11742424242424243</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4696969696969697</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.11742424242424243</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5647535272600592</v>
+        <v>0.8778373389883758</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5681026728902898</v>
+        <v>0.8780933176194525</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.3967481900654196</v>
+        <v>0.7826794611439933</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3967481900654197</v>
+        <v>0.7826794611439936</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.3153651046929975</v>
+        <v>7.2029957708009</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05305398862876172</v>
+        <v>0.015017042437497666</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.7651515151515151</v>
+        <v>2.159090909090909</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1502014932413929</v>
+        <v>1.2111933307609395</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.15740912632018622</v>
+        <v>0.6125871388966517</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.15740912632018622</v>
+        <v>0.6125871388966517</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.15740912632018622</v>
+        <v>0.6125871388966517</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.39674819006541967</v>
+        <v>0.7826794611439934</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>264.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8581035949805155</v>
+        <v>0.9459481983464164</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8356877975851448</v>
+        <v>0.9441079019751909</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5263826157775379</v>
+        <v>0.8352444552466796</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.3967481900654196</v>
+        <v>0.7826794611439934</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.2803030303030303</v>
+        <v>2.231060606060606</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4634424437436815</v>
+        <v>1.3035565608517166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>264.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8117853352799659</v>
+        <v>0.9422376995653692</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8356877975851448</v>
+        <v>0.9441079019751909</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5263826157775379</v>
+        <v>0.8352444552466796</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.3967481900654198</v>
+        <v>0.7826794611439937</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.25</v>
+        <v>2.087121212121212</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.2868152688407426</v>
+        <v>1.262197088792071</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4810606060606061</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14772727272727273</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07575757575757576</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.20075757575757575</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.0946969696969697</v>
+        <v>0.16287878787878787</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.1590909090909091</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13636363636363635</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.11742424242424243</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4696969696969697</v>
+        <v>0.23106060606060605</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.11742424242424243</v>
+        <v>0.14015151515151514</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7543454509424017</v>
+        <v>0.7113772378916933</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7729975851799638</v>
+        <v>0.7380702187575294</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8841605179153433</v>
+        <v>0.864403304782777</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.25402302477849314</v>
+        <v>0.21983595837648806</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.4052394807904727</v>
+        <v>2.8178171082970205</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.023625555244015908</v>
+        <v>0.02601915771052489</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4462121212121213</v>
+        <v>1.8132575757575757</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7381927683190381</v>
+        <v>0.6462633116642366</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2038481687916274</v>
+        <v>0.11030609523830846</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7232936749540231</v>
+        <v>0.6921711482199123</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7366146675442758</v>
+        <v>0.704197191670928</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8531262247178419</v>
+        <v>0.8333972714743727</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.23707598034364816</v>
+        <v>0.20918265566809102</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>2.796718635302531</v>
+        <v>2.3806305141211808</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02667571776390951</v>
+        <v>0.02839244513792282</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04929403958594997</v>
+        <v>0.05155975888309942</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.19672197302353855</v>
+        <v>0.11242726261904204</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7254541527977918</v>
+        <v>0.6671377376735776</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7412381552386222</v>
+        <v>0.701528763175645</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8553618579888261</v>
+        <v>0.8297488335854349</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.24143820098227936</v>
+        <v>0.2070768632470963</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>2.8645573922313377</v>
+        <v>2.350406594081569</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.026494456773433206</v>
+        <v>0.029675292603065104</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04947494488964671</v>
+        <v>0.05190863334167365</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21158621581791093</v>
+        <v>0.11469667438110259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7242318651096091</v>
+        <v>0.6750432097474345</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7377064855603952</v>
+        <v>0.7014717457902043</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8505330515022352</v>
+        <v>0.8305620339676771</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2380967076830028</v>
+        <v>0.20703215748232248</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>2.8125227843948775</v>
+        <v>2.349766683381444</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02655039294669796</v>
+        <v>0.02879388852240454</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04760307565636185</v>
+        <v>0.05176014364937343</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.19672197302353855</v>
+        <v>0.11344021616752215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7247960997458867</v>
+        <v>0.7177158150898922</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7404166217674156</v>
+        <v>0.7475610630899032</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8524466610319035</v>
+        <v>0.8719211740759844</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.24065542859981395</v>
+        <v>0.2475768230252722</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>2.852326781509134</v>
+        <v>2.9613540297713206</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.026495577110737488</v>
+        <v>0.02646725663015101</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04793210805605607</v>
+        <v>0.07286848669070682</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.19731350832725844</v>
+        <v>0.11469667438110259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7282414661115396</v>
+        <v>0.6865964000598552</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7499505317653503</v>
+        <v>0.7073268176720509</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8537900053453756</v>
+        <v>0.8389880442045129</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2499505382901062</v>
+        <v>0.21168668698385312</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>2.99920866482942</v>
+        <v>2.4167804239729422</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.026302837363744856</v>
+        <v>0.02797718393257819</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.05395220556660098</v>
+        <v>0.07643775445606539</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.1876403035220268</v>
+        <v>0.10573866865091808</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7297688688834867</v>
+        <v>0.6917104853281435</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7516226553055784</v>
+        <v>0.7104167529321403</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8534826534138706</v>
+        <v>0.8417494028426089</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2516297071802519</v>
+        <v>0.21419605047857196</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.0261320984419853</v>
+        <v>2.4532384387749624</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02613316162341591</v>
+        <v>0.0275181144545249</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.053384692820599274</v>
+        <v>0.07619185501728855</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.1876403035220268</v>
+        <v>0.10977456188800919</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7440163207957476</v>
+        <v>0.7044880481258954</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7720533709271505</v>
+        <v>0.7379437630738188</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8379565245721213</v>
+        <v>0.8709163242394031</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.27343134461832325</v>
+        <v>0.23831929725968948</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.3869918325504598</v>
+        <v>2.815974814145297</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.024311608130384563</v>
+        <v>0.026690984821225172</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.041607843391315916</v>
+        <v>0.08090790178339068</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2275864348789406</v>
+        <v>0.10144320327670073</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7515420148666552</v>
+        <v>0.6954621677303765</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7725324978581666</v>
+        <v>0.7297136442934911</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8379067578637183</v>
+        <v>0.8674094474020503</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2739729525288613</v>
+        <v>0.23075475340821225</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.3962323874135985</v>
+        <v>2.699779803483132</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.023471029907139618</v>
+        <v>0.027305120410800597</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.04134671220137975</v>
+        <v>0.08224376968138089</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2275864348789406</v>
+        <v>0.10977456188800919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7512298254405123</v>
+        <v>0.6749669263560194</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7706580056411385</v>
+        <v>0.7115981094673375</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8916353302770693</v>
+        <v>0.8289124098377065</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2718623596377384</v>
+        <v>0.21516535294216166</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.360300444737808</v>
+        <v>2.467383650478348</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.024357459688978518</v>
+        <v>0.02899789188453696</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.059564095034886154</v>
+        <v>0.07628078570399154</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22198698417564078</v>
+        <v>0.10024894236669599</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.740760033835315</v>
+        <v>0.6766042636772036</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7617377566539603</v>
+        <v>0.7142588893810382</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8863040881501805</v>
+        <v>0.8290898157222817</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2621170279209065</v>
+        <v>0.21736894326961018</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.1970560922976445</v>
+        <v>2.499671425766622</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.025233773291493584</v>
+        <v>0.028821710860675687</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05999431293551031</v>
+        <v>0.07545403524442687</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.19358342868267586</v>
+        <v>0.10977456188800919</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6242403119915942</v>
+        <v>0.6315948231019558</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6796808083524062</v>
+        <v>0.6160311561807175</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6573800777785603</v>
+        <v>0.6478523222062098</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5246841977554914</v>
+        <v>0.5917073380440726</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.5</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.053691681515906</v>
+        <v>0.40413520990876994</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6049507569955986</v>
+        <v>0.6552827426340143</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6522863539060842</v>
+        <v>0.6299216451659662</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6266222507824046</v>
+        <v>0.664886258269002</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.48913388574148636</v>
+        <v>0.48340826535059417</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.037878787878788</v>
+        <v>0.7386363636363636</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.1693506893491852</v>
+        <v>1.539055447197138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6168619425939259</v>
+        <v>0.6522305261560796</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6732707087915457</v>
+        <v>0.6302165388729511</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6566587054654464</v>
+        <v>0.6657858920057586</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5152469939860075</v>
+        <v>0.4560033018853151</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.522727272727273</v>
+        <v>0.821969696969697</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0606398032589444</v>
+        <v>1.7050947764851272</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.609910485991041</v>
+        <v>0.18810141801694516</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6572021122204128</v>
+        <v>0.3627707904126621</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6377278109730371</v>
+        <v>0.25398766874451517</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.48747007391562114</v>
+        <v>0.16759914630358114</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.992424242424242</v>
+        <v>0.9810606060606061</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2363088206198278</v>
+        <v>0.1365699173337373</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5922312815623516</v>
+        <v>0.5262626607497248</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5988294437842334</v>
+        <v>0.5995137544351641</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.569417102364161</v>
+        <v>0.5583944154738845</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.45843689034489526</v>
+        <v>0.39281822990343734</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.231060606060606</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3035565608517166</v>
+        <v>1.053691681515906</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5804438912189148</v>
+        <v>0.5075056768621151</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5882843752332733</v>
+        <v>0.5829611799098401</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.55928824204194</v>
+        <v>0.5382530628089501</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.449239120463112</v>
+        <v>0.3544011297439253</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.087121212121212</v>
+        <v>4.037878787878788</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.262197088792071</v>
+        <v>1.1693506893491852</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5364421976835625</v>
+        <v>0.49899610885351964</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.4513715473117852</v>
+        <v>0.42383642935951515</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.46538354937090975</v>
+        <v>0.301380690956156</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.3622110214747131</v>
+        <v>0.30001493601294615</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.7386363636363636</v>
+        <v>1.2803030303030303</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.539055447197138</v>
+        <v>1.4634424437436815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5342997285058363</v>
+        <v>0.505334638093968</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4479702857842029</v>
+        <v>0.4737346111554878</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.4618293688329933</v>
+        <v>0.36016398302265124</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.33774455285900834</v>
+        <v>0.3344289929681171</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.821969696969697</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7050947764851272</v>
+        <v>1.2868152688407426</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4821219908306671</v>
+        <v>0.6025010290064267</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.46122466826512665</v>
+        <v>0.576567346852208</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.3404116376867412</v>
+        <v>0.549054928652437</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.308242822957471</v>
+        <v>0.44876728166223934</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.2803030303030303</v>
+        <v>2.231060606060606</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4634424437436815</v>
+        <v>1.3035565608517166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>264.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5141529930983569</v>
+        <v>0.5919628563659911</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5224247009770941</v>
+        <v>0.5620317511941302</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4155824339242358</v>
+        <v>0.5343374119021095</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.36835548259552636</v>
+        <v>0.4415702471831249</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.25</v>
+        <v>2.087121212121212</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.2868152688407426</v>
+        <v>1.262197088792071</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.01893939393939394</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.06818181818181818</v>
+        <v>0.20454545454545456</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.011363636363636364</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.29545454545454547</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5075757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.09848484848484848</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="C40" t="n" s="798">
         <v>0.01893939393939394</v>
       </c>
-      <c r="C40" t="n" s="798">
+      <c r="D40" t="n" s="799">
         <v>0.003787878787878788</v>
       </c>
-      <c r="D40" t="n" s="799">
-        <v>0.07575757575757576</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.22348484848484848</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.17803030303030304</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.5</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.01893939393939394</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06060606060606061</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.022727272727272728</v>
+        <v>0.011363636363636364</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.2916666666666667</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.48863636363636365</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.11742424242424243</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
         <v>0.01893939393939394</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.01893939393939394</v>
+        <v>0.9810606060606061</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.04924242424242424</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3143939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5378787878787878</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.18181818181818182</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.04924242424242424</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2878787878787879</v>
+        <v>0.011363636363636364</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3181818181818182</v>
+        <v>0.29545454545454547</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.16287878787878787</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1893939393939394</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.045454545454545456</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3939393939393939</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.23106060606060605</v>
+        <v>0.22348484848484848</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.14015151515151514</v>
+        <v>0.17803030303030304</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7954545454545454</v>
+        <v>0.4810606060606061</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.01893939393939394</v>
+        <v>0.14772727272727273</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.003787878787878788</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.04924242424242424</v>
+        <v>0.20075757575757575</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09848484848484848</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.03409090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7954545454545454</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.007575757575757576</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.011363636363636364</v>
+        <v>0.11742424242424243</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.05303030303030303</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.030303030303030304</v>
+        <v>0.11742424242424243</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.10227272727272728</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4810606060606061</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14772727272727273</v>
+        <v>0.04924242424242424</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07575757575757576</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.20075757575757575</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.0946969696969697</v>
+        <v>0.16287878787878787</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.1590909090909091</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13636363636363635</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.11742424242424243</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4696969696969697</v>
+        <v>0.23106060606060605</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.11742424242424243</v>
+        <v>0.14015151515151514</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
